--- a/Project Development Phase/User Acceptance Testing/Testcases Report .xlsx
+++ b/Project Development Phase/User Acceptance Testing/Testcases Report .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Testcases" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>Test case ID</t>
   </si>
@@ -299,12 +299,126 @@
     <t>Username: ganesan
 password: abi1233ha82</t>
   </si>
+  <si>
+    <t>Resgistration page_TC_OO 6</t>
+  </si>
+  <si>
+    <t>Registration  page</t>
+  </si>
+  <si>
+    <t>new user is able to register their account to the application</t>
+  </si>
+  <si>
+    <t>1.Enter url and click go.                                          2.Click on sign up.                                                         3.enter the users details                                                     4 .click submit</t>
+  </si>
+  <si>
+    <t>username:ganesn              mail:gani@gmail.com                           password:1234                   retype:1233</t>
+  </si>
+  <si>
+    <t>Application should show the password does not match</t>
+  </si>
+  <si>
+    <t>Resgistration page_TC_OO7</t>
+  </si>
+  <si>
+    <t>Fuctional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Enter url and click go.                                          2.Click on sign up.                                                         3.enter the users details                                                     4.click submit                             </t>
+  </si>
+  <si>
+    <t>username:ganesn              mail:gani@gmail.com                           password:1234                   retype:1234</t>
+  </si>
+  <si>
+    <t>Application should register the user and redirect to login page</t>
+  </si>
+  <si>
+    <t>product list page</t>
+  </si>
+  <si>
+    <t>user can see the list the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click product  button in navigation  bar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">application should show the list of product </t>
+  </si>
+  <si>
+    <t>Product show page_TC_OO8</t>
+  </si>
+  <si>
+    <t>product add_TC_OO9</t>
+  </si>
+  <si>
+    <t>Product Add page</t>
+  </si>
+  <si>
+    <t>user can add the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click add icon in product page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">product name:phone                       quantity:10                    </t>
+  </si>
+  <si>
+    <t>Application should add the product to the database</t>
+  </si>
+  <si>
+    <t>product remove_TC_O10</t>
+  </si>
+  <si>
+    <t>Product delete page</t>
+  </si>
+  <si>
+    <t>user can delete the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click product button in navigation                           2.click edit button in the product list                              3.click delete icon    </t>
+  </si>
+  <si>
+    <t>application should delete the product to the database</t>
+  </si>
+  <si>
+    <t>Product update_TC_O11</t>
+  </si>
+  <si>
+    <t>Product update page</t>
+  </si>
+  <si>
+    <t>user can update the product</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click product button in navigation                           2.click edit button in the product list                              3.make changes                                                      4.click update    </t>
+  </si>
+  <si>
+    <t>quntity:10 to 50</t>
+  </si>
+  <si>
+    <t>Application should update the changes</t>
+  </si>
+  <si>
+    <t>product update_TC_O12</t>
+  </si>
+  <si>
+    <t>Product Point of sales  page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user can register the product which are salling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.click point of sale  button in top navigation                           2.Enter the product                                                                     3. click submit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Product name:phone                                                                                           2.quantity:1                                                                                    3. customer: james                                                                        </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,7 +578,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,7 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -486,16 +599,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -523,6 +630,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -557,7 +691,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -612,7 +746,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -667,7 +801,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -722,7 +856,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -777,7 +911,7 @@
         <xdr:cNvPr id="6" name="TextBox 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -832,7 +966,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -887,7 +1021,7 @@
         <xdr:cNvPr id="8" name="TextBox 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -942,7 +1076,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,7 +1131,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1052,7 +1186,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1107,7 +1241,7 @@
         <xdr:cNvPr id="12" name="TextBox 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1162,7 +1296,7 @@
         <xdr:cNvPr id="13" name="TextBox 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1217,7 +1351,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1272,7 +1406,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1461,7 @@
         <xdr:cNvPr id="16" name="TextBox 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1382,7 +1516,7 @@
         <xdr:cNvPr id="17" name="TextBox 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1437,7 +1571,7 @@
         <xdr:cNvPr id="18" name="TextBox 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1492,7 +1626,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1547,7 +1681,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1602,7 +1736,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1791,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1846,7 @@
         <xdr:cNvPr id="23" name="TextBox 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1767,7 +1901,7 @@
         <xdr:cNvPr id="24" name="TextBox 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1855,7 +1989,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1887,10 +2021,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1922,7 +2055,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2098,22 +2230,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="42" style="1" customWidth="1"/>
+    <col min="6" max="6" width="42" style="27" customWidth="1"/>
     <col min="7" max="7" width="25.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2125,131 +2257,131 @@
     <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="10" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="12">
+      <c r="F1" s="24">
         <v>44884</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="16"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="11" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="13"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="10" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" ht="28.5">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="19"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="11" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="22"/>
-    </row>
-    <row r="5" spans="1:14" s="7" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" s="6" customFormat="1" ht="28.9" customHeight="1">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="N5" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="45">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,13 +2394,13 @@
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2281,7 +2413,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="135">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2294,13 +2426,13 @@
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2319,7 +2451,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="90">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2332,13 +2464,13 @@
       <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2348,7 +2480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="90">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
@@ -2361,13 +2493,13 @@
       <c r="D9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2386,7 +2518,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="105">
       <c r="A10" s="1" t="s">
         <v>37</v>
       </c>
@@ -2399,13 +2531,13 @@
       <c r="D10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2415,7 +2547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="105">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -2428,78 +2560,251 @@
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="4"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H31" s="5"/>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="74.25" customHeight="1">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="60">
+      <c r="A13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="30">
+      <c r="A14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="45">
+      <c r="A16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="A18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="H31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2516,29 +2821,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="102.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2546,7 +2851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2554,7 +2859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2562,12 +2867,12 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2575,7 +2880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2583,33 +2888,33 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="1:2">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2617,7 +2922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2625,12 +2930,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="1:2">
+      <c r="B21" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2638,15 +2943,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>2</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>3</v>
       </c>
@@ -2654,7 +2959,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -2662,12 +2967,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="27" spans="1:2">
+      <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2675,7 +2980,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>2</v>
       </c>
